--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleNumberFormat.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleNumberFormat.xlsx
@@ -393,7 +393,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.903622" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.025493" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:2">
